--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdClBatch.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdClBatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914D7791-2871-41C1-8021-ABFAF81BC85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCD5FD0-0D45-4030-9A1E-F9B0B6051CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5412" yWindow="0" windowWidth="17484" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>建檔日期時間</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   <si>
     <t>擔保品整批匯入批號紀錄檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -478,9 +478,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -518,9 +518,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,26 +553,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,26 +588,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -801,7 +767,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -817,14 +783,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -834,10 +800,10 @@
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -845,14 +811,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -860,7 +826,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="13"/>
@@ -871,7 +837,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="13"/>
@@ -882,7 +848,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="13"/>
@@ -893,7 +859,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="13"/>
@@ -904,7 +870,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
@@ -930,20 +896,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="16">
         <v>7</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -951,20 +917,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="E10" s="16">
         <v>10</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -972,13 +938,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -989,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>3</v>
@@ -1008,13 +974,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1028,7 +994,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>3</v>
